--- a/data_year/zb/教育/研究生和留学生数.xlsx
+++ b/data_year/zb/教育/研究生和留学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,459 +463,275 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.8989</v>
+        <v>28.47</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9121</v>
+        <v>13.48</v>
       </c>
       <c r="D2" t="n">
-        <v>30.1239</v>
+        <v>153.8416</v>
       </c>
       <c r="E2" t="n">
-        <v>12.8484</v>
+        <v>53.8177</v>
       </c>
       <c r="F2" t="n">
-        <v>5.8767</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.3973</v>
+        <v>33.97</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2243</v>
+        <v>18.62</v>
       </c>
       <c r="D3" t="n">
-        <v>39.3256</v>
+        <v>164.5845</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5197</v>
+        <v>56.0168</v>
       </c>
       <c r="F3" t="n">
-        <v>6.7809</v>
+        <v>42.9994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.5179</v>
+        <v>39.96</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7945</v>
+        <v>27.29</v>
       </c>
       <c r="D4" t="n">
-        <v>50.098</v>
+        <v>171.9818</v>
       </c>
       <c r="E4" t="n">
-        <v>20.2611</v>
+        <v>58.9673</v>
       </c>
       <c r="F4" t="n">
-        <v>8.084099999999999</v>
+        <v>48.6455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.7307</v>
+        <v>41.39</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0152</v>
+        <v>35.35</v>
       </c>
       <c r="D5" t="n">
-        <v>65.126</v>
+        <v>179.3953</v>
       </c>
       <c r="E5" t="n">
-        <v>26.8925</v>
+        <v>61.1381</v>
       </c>
       <c r="F5" t="n">
-        <v>11.1091</v>
+        <v>51.3626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.4682</v>
+        <v>45.98</v>
       </c>
       <c r="C6" t="n">
-        <v>2.4726</v>
+        <v>36.48</v>
       </c>
       <c r="D6" t="n">
-        <v>81.9896</v>
+        <v>184.7689</v>
       </c>
       <c r="E6" t="n">
-        <v>32.6286</v>
+        <v>62.1323</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0777</v>
+        <v>53.5863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.8515</v>
+        <v>52.37</v>
       </c>
       <c r="C7" t="n">
-        <v>3.4987</v>
+        <v>40.91</v>
       </c>
       <c r="D7" t="n">
-        <v>97.861</v>
+        <v>191.1406</v>
       </c>
       <c r="E7" t="n">
-        <v>36.4831</v>
+        <v>64.5055</v>
       </c>
       <c r="F7" t="n">
-        <v>18.9728</v>
+        <v>55.1522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.4</v>
+        <v>54.45</v>
       </c>
       <c r="C8" t="n">
-        <v>4.2</v>
+        <v>43.25</v>
       </c>
       <c r="D8" t="n">
-        <v>110.4653</v>
+        <v>198.1051</v>
       </c>
       <c r="E8" t="n">
-        <v>39.7925</v>
+        <v>66.7064</v>
       </c>
       <c r="F8" t="n">
-        <v>25.5902</v>
+        <v>56.3938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.4</v>
+        <v>60.84</v>
       </c>
       <c r="C9" t="n">
-        <v>4.4</v>
+        <v>48.09</v>
       </c>
       <c r="D9" t="n">
-        <v>119.5047</v>
+        <v>263.9561</v>
       </c>
       <c r="E9" t="n">
-        <v>41.8612</v>
+        <v>80.6103</v>
       </c>
       <c r="F9" t="n">
-        <v>31.1839</v>
+        <v>57.8045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.98</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>6.93</v>
+        <v>51.94</v>
       </c>
       <c r="D10" t="n">
-        <v>128.3046</v>
+        <v>273.1257</v>
       </c>
       <c r="E10" t="n">
-        <v>44.6422</v>
+        <v>85.7966</v>
       </c>
       <c r="F10" t="n">
-        <v>34.4825</v>
+        <v>60.4368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.93</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10.83</v>
+        <v>58.03</v>
       </c>
       <c r="D11" t="n">
-        <v>140.4942</v>
+        <v>286.3712</v>
       </c>
       <c r="E11" t="n">
-        <v>51.0953</v>
+        <v>91.6503</v>
       </c>
       <c r="F11" t="n">
-        <v>37.1273</v>
+        <v>63.9666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13.48</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>153.8416</v>
+        <v>313.9598</v>
       </c>
       <c r="E12" t="n">
-        <v>53.8177</v>
+        <v>110.6551</v>
       </c>
       <c r="F12" t="n">
-        <v>38.36</v>
+        <v>72.8627</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.97</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18.62</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>164.5845</v>
+        <v>333.2373</v>
       </c>
       <c r="E13" t="n">
-        <v>56.0168</v>
+        <v>117.6526</v>
       </c>
       <c r="F13" t="n">
-        <v>42.9994</v>
+        <v>77.2761</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>39.96</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.29</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>171.9818</v>
+        <v>365.3613</v>
       </c>
       <c r="E14" t="n">
-        <v>58.9673</v>
+        <v>124.2479</v>
       </c>
       <c r="F14" t="n">
-        <v>48.6455</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>41.39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.35</v>
-      </c>
-      <c r="D15" t="n">
-        <v>179.3953</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.1381</v>
-      </c>
-      <c r="F15" t="n">
-        <v>51.3626</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>45.98</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.48</v>
-      </c>
-      <c r="D16" t="n">
-        <v>184.7689</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62.1323</v>
-      </c>
-      <c r="F16" t="n">
-        <v>53.5863</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="D17" t="n">
-        <v>191.1406</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64.5055</v>
-      </c>
-      <c r="F17" t="n">
-        <v>55.1522</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>54.45</v>
-      </c>
-      <c r="C18" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>198.1051</v>
-      </c>
-      <c r="E18" t="n">
-        <v>66.7064</v>
-      </c>
-      <c r="F18" t="n">
-        <v>56.3938</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="C19" t="n">
-        <v>48.09</v>
-      </c>
-      <c r="D19" t="n">
-        <v>263.9561</v>
-      </c>
-      <c r="E19" t="n">
-        <v>80.6103</v>
-      </c>
-      <c r="F19" t="n">
-        <v>57.8045</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>66.20999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>51.94</v>
-      </c>
-      <c r="D20" t="n">
-        <v>273.1257</v>
-      </c>
-      <c r="E20" t="n">
-        <v>85.7966</v>
-      </c>
-      <c r="F20" t="n">
-        <v>60.4368</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>70.34999999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>58.03</v>
-      </c>
-      <c r="D21" t="n">
-        <v>286.3712</v>
-      </c>
-      <c r="E21" t="n">
-        <v>91.6503</v>
-      </c>
-      <c r="F21" t="n">
-        <v>63.9666</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>313.9598</v>
-      </c>
-      <c r="E22" t="n">
-        <v>110.6551</v>
-      </c>
-      <c r="F22" t="n">
-        <v>72.8627</v>
+        <v>86.2165</v>
       </c>
     </row>
   </sheetData>
